--- a/src/oracle.xlsx
+++ b/src/oracle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucab\source\repos\Excel-Oracle-Optimizer\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6068C9C7-C4B9-422E-963C-D397D9C77A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FAAA4D0-0686-4271-83CF-B601A85F90A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="1440" windowWidth="14400" windowHeight="8460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2575" yWindow="940" windowWidth="14400" windowHeight="8460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
     <t>out</t>
   </si>
   <si>
-    <t>red</t>
+    <t>blue</t>
   </si>
 </sst>
 </file>
@@ -365,7 +365,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -380,16 +380,16 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <f>A2 *0.6 +A3 * 0.4 + IF(A4 = "red", 0, 1)</f>
-        <v>2.8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.75">

--- a/src/oracle.xlsx
+++ b/src/oracle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucab\source\repos\Excel-Oracle-Optimizer\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FAAA4D0-0686-4271-83CF-B601A85F90A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC42D42-3020-421D-9BDC-D1A5FC47D145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2575" yWindow="940" windowWidth="14400" windowHeight="8460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/src/oracle.xlsx
+++ b/src/oracle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucab\source\repos\Excel-Oracle-Optimizer\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC42D42-3020-421D-9BDC-D1A5FC47D145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C44975A-F61A-43B5-89F5-5CAD643059AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2575" yWindow="940" windowWidth="14400" windowHeight="8460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="720" yWindow="720" windowWidth="14400" windowHeight="8190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
